--- a/Файлы/1 курс/Основы программной инженерии/1 семестр/Лабораторные работы/Лабораторная работа 5/Анализ/Лаб5 данные.xlsx
+++ b/Файлы/1 курс/Основы программной инженерии/1 семестр/Лабораторные работы/Лабораторная работа 5/Анализ/Лаб5 данные.xlsx
@@ -1,19 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luvid\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luvid\Desktop\VSCode\Codespace\Файлы\1 курс\Основы программной инженерии\1 семестр\Лабораторные работы\Лабораторная работа 5\Анализ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A7D309-5378-4D44-AB12-F5914F86D8E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7533FB41-FFBA-4866-A666-9A0AF06468AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6405" yWindow="1035" windowWidth="21585" windowHeight="11295" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Сложение" sheetId="1" r:id="rId1"/>
+    <sheet name="Вычитание" sheetId="2" r:id="rId2"/>
+    <sheet name="Умножение" sheetId="3" r:id="rId3"/>
+    <sheet name="Деление" sheetId="4" r:id="rId4"/>
+    <sheet name="Корни" sheetId="5" r:id="rId5"/>
+    <sheet name="Логарифм" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,8 +32,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="366">
   <si>
     <t>Сложение</t>
   </si>
@@ -59,46 +62,1081 @@
     <t>Время генерации массива</t>
   </si>
   <si>
-    <t>1.407435417175293</t>
-  </si>
-  <si>
-    <t>10.186827421188354</t>
-  </si>
-  <si>
-    <t>4-99999999</t>
-  </si>
-  <si>
-    <t>0.0026099681854248047</t>
-  </si>
-  <si>
-    <t>0.0021941661834716797</t>
-  </si>
-  <si>
     <t>100000</t>
   </si>
   <si>
-    <t>500521429</t>
-  </si>
-  <si>
-    <t>1-9999</t>
-  </si>
-  <si>
-    <t>0.0020380020141601562</t>
-  </si>
-  <si>
-    <t>0.009397268295288086</t>
-  </si>
-  <si>
-    <t>501534320</t>
-  </si>
-  <si>
-    <t>0.0020198822021484375</t>
-  </si>
-  <si>
-    <t>0.009761571884155273</t>
-  </si>
-  <si>
-    <t>497885815</t>
+    <t>0.003512859344482422</t>
+  </si>
+  <si>
+    <t>1000000</t>
+  </si>
+  <si>
+    <t>0.0003600120544433594</t>
+  </si>
+  <si>
+    <t>0.004232645034790039</t>
+  </si>
+  <si>
+    <t>465982</t>
+  </si>
+  <si>
+    <t>-1000-999</t>
+  </si>
+  <si>
+    <t>0.00027108192443847656</t>
+  </si>
+  <si>
+    <t>0.00425410270690918</t>
+  </si>
+  <si>
+    <t>715203</t>
+  </si>
+  <si>
+    <t>0.0007531642913818359</t>
+  </si>
+  <si>
+    <t>-341580</t>
+  </si>
+  <si>
+    <t>0.0010485649108886719</t>
+  </si>
+  <si>
+    <t>0.0035059452056884766</t>
+  </si>
+  <si>
+    <t>110132</t>
+  </si>
+  <si>
+    <t>0.0007586479187011719</t>
+  </si>
+  <si>
+    <t>0.0035047531127929688</t>
+  </si>
+  <si>
+    <t>-97063</t>
+  </si>
+  <si>
+    <t>10000000</t>
+  </si>
+  <si>
+    <t>0.01134943962097168</t>
+  </si>
+  <si>
+    <t>0.004055023193359375</t>
+  </si>
+  <si>
+    <t>-114434</t>
+  </si>
+  <si>
+    <t>-1000;999</t>
+  </si>
+  <si>
+    <t>0.0006201267242431641</t>
+  </si>
+  <si>
+    <t>0.003494739532470703</t>
+  </si>
+  <si>
+    <t>-192047</t>
+  </si>
+  <si>
+    <t>0.0006825923919677734</t>
+  </si>
+  <si>
+    <t>0.003503084182739258</t>
+  </si>
+  <si>
+    <t>251675</t>
+  </si>
+  <si>
+    <t>0.00035071372985839844</t>
+  </si>
+  <si>
+    <t>0.003593921661376953</t>
+  </si>
+  <si>
+    <t>-113718</t>
+  </si>
+  <si>
+    <t>0.0006318092346191406</t>
+  </si>
+  <si>
+    <t>0.0035042762756347656</t>
+  </si>
+  <si>
+    <t>-127000</t>
+  </si>
+  <si>
+    <t>0.0027658939361572266</t>
+  </si>
+  <si>
+    <t>0.03820943832397461</t>
+  </si>
+  <si>
+    <t>-209152</t>
+  </si>
+  <si>
+    <t>0.0029320716857910156</t>
+  </si>
+  <si>
+    <t>0.03769874572753906</t>
+  </si>
+  <si>
+    <t>408828</t>
+  </si>
+  <si>
+    <t>0.003075122833251953</t>
+  </si>
+  <si>
+    <t>0.0362393856048584</t>
+  </si>
+  <si>
+    <t>-1066431</t>
+  </si>
+  <si>
+    <t>0.0029327869415283203</t>
+  </si>
+  <si>
+    <t>0.03724050521850586</t>
+  </si>
+  <si>
+    <t>-1050109</t>
+  </si>
+  <si>
+    <t>0.002693653106689453</t>
+  </si>
+  <si>
+    <t>0.03919219970703125</t>
+  </si>
+  <si>
+    <t>-1449862</t>
+  </si>
+  <si>
+    <t>0.03169608116149902</t>
+  </si>
+  <si>
+    <t>0.3635365962982178</t>
+  </si>
+  <si>
+    <t>-828082</t>
+  </si>
+  <si>
+    <t>0.03212571144104004</t>
+  </si>
+  <si>
+    <t>0.36589956283569336</t>
+  </si>
+  <si>
+    <t>-4802174</t>
+  </si>
+  <si>
+    <t>0.032129764556884766</t>
+  </si>
+  <si>
+    <t>0.3658590316772461</t>
+  </si>
+  <si>
+    <t>-7241865</t>
+  </si>
+  <si>
+    <t>0.032143592834472656</t>
+  </si>
+  <si>
+    <t>0.3699150085449219</t>
+  </si>
+  <si>
+    <t>-6455433</t>
+  </si>
+  <si>
+    <t>0.03259587287902832</t>
+  </si>
+  <si>
+    <t>0.3695793151855469</t>
+  </si>
+  <si>
+    <t>-4985058</t>
+  </si>
+  <si>
+    <t>0.3251023292541504</t>
+  </si>
+  <si>
+    <t>3.710132122039795</t>
+  </si>
+  <si>
+    <t>100000000</t>
+  </si>
+  <si>
+    <t>-43861735</t>
+  </si>
+  <si>
+    <t>0.32509517669677734</t>
+  </si>
+  <si>
+    <t>3.6927547454833984</t>
+  </si>
+  <si>
+    <t>-51276841</t>
+  </si>
+  <si>
+    <t>0.3254852294921875</t>
+  </si>
+  <si>
+    <t>3.7117409706115723</t>
+  </si>
+  <si>
+    <t>-58767399</t>
+  </si>
+  <si>
+    <t>0.32521533966064453</t>
+  </si>
+  <si>
+    <t>3.7076916694641113</t>
+  </si>
+  <si>
+    <t>-49979783</t>
+  </si>
+  <si>
+    <t>0.32651519775390625</t>
+  </si>
+  <si>
+    <t>3.672833204269409</t>
+  </si>
+  <si>
+    <t>-54407274</t>
+  </si>
+  <si>
+    <t>Вычитание</t>
+  </si>
+  <si>
+    <t>0.0008764266967773438</t>
+  </si>
+  <si>
+    <t>0.00459599494934082</t>
+  </si>
+  <si>
+    <t>-111224</t>
+  </si>
+  <si>
+    <t>0.0008749961853027344</t>
+  </si>
+  <si>
+    <t>0.004588603973388672</t>
+  </si>
+  <si>
+    <t>-184633</t>
+  </si>
+  <si>
+    <t>0.00026869773864746094</t>
+  </si>
+  <si>
+    <t>0.004508495330810547</t>
+  </si>
+  <si>
+    <t>135917</t>
+  </si>
+  <si>
+    <t>0.004589557647705078</t>
+  </si>
+  <si>
+    <t>-174362</t>
+  </si>
+  <si>
+    <t>0.0002655982971191406</t>
+  </si>
+  <si>
+    <t>0.005242109298706055</t>
+  </si>
+  <si>
+    <t>87386</t>
+  </si>
+  <si>
+    <t>0.0030014514923095703</t>
+  </si>
+  <si>
+    <t>0.050489187240600586</t>
+  </si>
+  <si>
+    <t>798662</t>
+  </si>
+  <si>
+    <t>0.002683877944946289</t>
+  </si>
+  <si>
+    <t>0.050984859466552734</t>
+  </si>
+  <si>
+    <t>-337277</t>
+  </si>
+  <si>
+    <t>0.003004789352416992</t>
+  </si>
+  <si>
+    <t>0.0509951114654541</t>
+  </si>
+  <si>
+    <t>1012435</t>
+  </si>
+  <si>
+    <t>0.003057718276977539</t>
+  </si>
+  <si>
+    <t>0.05048727989196777</t>
+  </si>
+  <si>
+    <t>729596</t>
+  </si>
+  <si>
+    <t>0.002947568893432617</t>
+  </si>
+  <si>
+    <t>0.05010628700256348</t>
+  </si>
+  <si>
+    <t>691183</t>
+  </si>
+  <si>
+    <t>0.03203177452087402</t>
+  </si>
+  <si>
+    <t>0.4967970848083496</t>
+  </si>
+  <si>
+    <t>2536087</t>
+  </si>
+  <si>
+    <t>0.03260946273803711</t>
+  </si>
+  <si>
+    <t>0.503671407699585</t>
+  </si>
+  <si>
+    <t>1540666</t>
+  </si>
+  <si>
+    <t>0.033289194107055664</t>
+  </si>
+  <si>
+    <t>0.5035154819488525</t>
+  </si>
+  <si>
+    <t>6114006</t>
+  </si>
+  <si>
+    <t>0.032584428787231445</t>
+  </si>
+  <si>
+    <t>0.4955306053161621</t>
+  </si>
+  <si>
+    <t>5615602</t>
+  </si>
+  <si>
+    <t>0.032154083251953125</t>
+  </si>
+  <si>
+    <t>0.49617719650268555</t>
+  </si>
+  <si>
+    <t>1574603</t>
+  </si>
+  <si>
+    <t>0.32480525970458984</t>
+  </si>
+  <si>
+    <t>4.968766450881958</t>
+  </si>
+  <si>
+    <t>55561395</t>
+  </si>
+  <si>
+    <t>0.3259398937225342</t>
+  </si>
+  <si>
+    <t>4.909636974334717</t>
+  </si>
+  <si>
+    <t>38667524</t>
+  </si>
+  <si>
+    <t>0.32544779777526855</t>
+  </si>
+  <si>
+    <t>4.965318918228149</t>
+  </si>
+  <si>
+    <t>55161945</t>
+  </si>
+  <si>
+    <t>0.3262174129486084</t>
+  </si>
+  <si>
+    <t>4.991702079772949</t>
+  </si>
+  <si>
+    <t>45329573</t>
+  </si>
+  <si>
+    <t>0.3258092403411865</t>
+  </si>
+  <si>
+    <t>4.986185550689697</t>
+  </si>
+  <si>
+    <t>53363876</t>
+  </si>
+  <si>
+    <t>Умножение</t>
+  </si>
+  <si>
+    <t>0.003002643585205078</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>inf</t>
+  </si>
+  <si>
+    <t>0.001;1000</t>
+  </si>
+  <si>
+    <t>0.03320908546447754</t>
+  </si>
+  <si>
+    <t>0.002001523971557617</t>
+  </si>
+  <si>
+    <t>0.032747745513916016</t>
+  </si>
+  <si>
+    <t>0.0030524730682373047</t>
+  </si>
+  <si>
+    <t>5.5846219778141716e+25</t>
+  </si>
+  <si>
+    <t>0.03414416313171387</t>
+  </si>
+  <si>
+    <t>0.0030024051666259766</t>
+  </si>
+  <si>
+    <t>6.085734366346545e-107</t>
+  </si>
+  <si>
+    <t>0.0329279899597168</t>
+  </si>
+  <si>
+    <t>0.002056121826171875</t>
+  </si>
+  <si>
+    <t>8.387478693381606e-84</t>
+  </si>
+  <si>
+    <t>0.03270244598388672</t>
+  </si>
+  <si>
+    <t>7808.720721553602</t>
+  </si>
+  <si>
+    <t>0.3408064842224121</t>
+  </si>
+  <si>
+    <t>0.024629831314086914</t>
+  </si>
+  <si>
+    <t>0.3426840305328369</t>
+  </si>
+  <si>
+    <t>0.024637222290039062</t>
+  </si>
+  <si>
+    <t>0.3412201404571533</t>
+  </si>
+  <si>
+    <t>0.026186227798461914</t>
+  </si>
+  <si>
+    <t>0.34738612174987793</t>
+  </si>
+  <si>
+    <t>0.02532505989074707</t>
+  </si>
+  <si>
+    <t>0.3472862243652344</t>
+  </si>
+  <si>
+    <t>0.024133682250976562</t>
+  </si>
+  <si>
+    <t>3.4274120330810547</t>
+  </si>
+  <si>
+    <t>0.2527623176574707</t>
+  </si>
+  <si>
+    <t>3.417637586593628</t>
+  </si>
+  <si>
+    <t>0.24935173988342285</t>
+  </si>
+  <si>
+    <t>3.428715229034424</t>
+  </si>
+  <si>
+    <t>0.25202226638793945</t>
+  </si>
+  <si>
+    <t>3.4240341186523438</t>
+  </si>
+  <si>
+    <t>0.24899578094482422</t>
+  </si>
+  <si>
+    <t>3.4548768997192383</t>
+  </si>
+  <si>
+    <t>0.24032330513000488</t>
+  </si>
+  <si>
+    <t>34.25383281707764</t>
+  </si>
+  <si>
+    <t>2.6331417560577393</t>
+  </si>
+  <si>
+    <t>34.28204083442688</t>
+  </si>
+  <si>
+    <t>2.5991578102111816</t>
+  </si>
+  <si>
+    <t>34.1793487071991</t>
+  </si>
+  <si>
+    <t>2.5977563858032227</t>
+  </si>
+  <si>
+    <t>34.283607006073</t>
+  </si>
+  <si>
+    <t>2.5581130981445312</t>
+  </si>
+  <si>
+    <t>34.25770163536072</t>
+  </si>
+  <si>
+    <t>2.5340874195098877</t>
+  </si>
+  <si>
+    <t>Деление</t>
+  </si>
+  <si>
+    <t>0.03168344497680664</t>
+  </si>
+  <si>
+    <t>0.01562809944152832</t>
+  </si>
+  <si>
+    <t>3.558313759256799e+46</t>
+  </si>
+  <si>
+    <t>0.025166034698486328</t>
+  </si>
+  <si>
+    <t>0.009980201721191406</t>
+  </si>
+  <si>
+    <t>6.025655365120027e+122</t>
+  </si>
+  <si>
+    <t>0.03168058395385742</t>
+  </si>
+  <si>
+    <t>0.015626907348632812</t>
+  </si>
+  <si>
+    <t>1190.2412580184437</t>
+  </si>
+  <si>
+    <t>0.03220391273498535</t>
+  </si>
+  <si>
+    <t>0.004870891571044922</t>
+  </si>
+  <si>
+    <t>4.674755408805238e+108</t>
+  </si>
+  <si>
+    <t>0.032610177993774414</t>
+  </si>
+  <si>
+    <t>0.004003286361694336</t>
+  </si>
+  <si>
+    <t>5.39539694844657e+274</t>
+  </si>
+  <si>
+    <t>0.3392932415008545</t>
+  </si>
+  <si>
+    <t>0.02263021469116211</t>
+  </si>
+  <si>
+    <t>0.3353602886199951</t>
+  </si>
+  <si>
+    <t>0.02826666831970215</t>
+  </si>
+  <si>
+    <t>0.33956265449523926</t>
+  </si>
+  <si>
+    <t>0.031635284423828125</t>
+  </si>
+  <si>
+    <t>0.33562254905700684</t>
+  </si>
+  <si>
+    <t>0.03125166893005371</t>
+  </si>
+  <si>
+    <t>0.32913947105407715</t>
+  </si>
+  <si>
+    <t>0.04221749305725098</t>
+  </si>
+  <si>
+    <t>3.3811910152435303</t>
+  </si>
+  <si>
+    <t>0.33075499534606934</t>
+  </si>
+  <si>
+    <t>3.4130659103393555</t>
+  </si>
+  <si>
+    <t>0.3466825485229492</t>
+  </si>
+  <si>
+    <t>3.384000539779663</t>
+  </si>
+  <si>
+    <t>0.33337855339050293</t>
+  </si>
+  <si>
+    <t>3.4149508476257324</t>
+  </si>
+  <si>
+    <t>0.347750186920166</t>
+  </si>
+  <si>
+    <t>3.369375228881836</t>
+  </si>
+  <si>
+    <t>0.33858251571655273</t>
+  </si>
+  <si>
+    <t>33.94639444351196</t>
+  </si>
+  <si>
+    <t>3.4943230152130127</t>
+  </si>
+  <si>
+    <t>33.77846646308899</t>
+  </si>
+  <si>
+    <t>3.4634928703308105</t>
+  </si>
+  <si>
+    <t>33.887264013290405</t>
+  </si>
+  <si>
+    <t>3.425572395324707</t>
+  </si>
+  <si>
+    <t>33.800824880599976</t>
+  </si>
+  <si>
+    <t>3.4377551078796387</t>
+  </si>
+  <si>
+    <t>33.94991946220398</t>
+  </si>
+  <si>
+    <t>3.429142951965332</t>
+  </si>
+  <si>
+    <t>Процесс операции "Корни" не подразумевает итогового значения</t>
+  </si>
+  <si>
+    <t>Корни</t>
+  </si>
+  <si>
+    <t>0.006242990493774414</t>
+  </si>
+  <si>
+    <t>0.00952458381652832</t>
+  </si>
+  <si>
+    <t>1;396</t>
+  </si>
+  <si>
+    <t>0.003559589385986328</t>
+  </si>
+  <si>
+    <t>0.006006956100463867</t>
+  </si>
+  <si>
+    <t>1;497</t>
+  </si>
+  <si>
+    <t>0.0009748935699462891</t>
+  </si>
+  <si>
+    <t>0.00850677490234375</t>
+  </si>
+  <si>
+    <t>1;91</t>
+  </si>
+  <si>
+    <t>0.008394002914428711</t>
+  </si>
+  <si>
+    <t>0.011710882186889648</t>
+  </si>
+  <si>
+    <t>1;596</t>
+  </si>
+  <si>
+    <t>0.0070760250091552734</t>
+  </si>
+  <si>
+    <t>0.013267993927001953</t>
+  </si>
+  <si>
+    <t>1;383</t>
+  </si>
+  <si>
+    <t>0.0046651363372802734</t>
+  </si>
+  <si>
+    <t>0.15246343612670898</t>
+  </si>
+  <si>
+    <t>1;540</t>
+  </si>
+  <si>
+    <t>0.015616655349731445</t>
+  </si>
+  <si>
+    <t>0.15721392631530762</t>
+  </si>
+  <si>
+    <t>1;882</t>
+  </si>
+  <si>
+    <t>0.015637874603271484</t>
+  </si>
+  <si>
+    <t>0.1571516990661621</t>
+  </si>
+  <si>
+    <t>1;338</t>
+  </si>
+  <si>
+    <t>0.01451253890991211</t>
+  </si>
+  <si>
+    <t>0.15690326690673828</t>
+  </si>
+  <si>
+    <t>1;707</t>
+  </si>
+  <si>
+    <t>0.0022907257080078125</t>
+  </si>
+  <si>
+    <t>0.15465688705444336</t>
+  </si>
+  <si>
+    <t>1;620</t>
+  </si>
+  <si>
+    <t>0.03169870376586914</t>
+  </si>
+  <si>
+    <t>1.6158688068389893</t>
+  </si>
+  <si>
+    <t>1;509</t>
+  </si>
+  <si>
+    <t>0.022707700729370117</t>
+  </si>
+  <si>
+    <t>1.59932279586792</t>
+  </si>
+  <si>
+    <t>1;762</t>
+  </si>
+  <si>
+    <t>0.031252145767211914</t>
+  </si>
+  <si>
+    <t>1.599809169769287</t>
+  </si>
+  <si>
+    <t>1;677</t>
+  </si>
+  <si>
+    <t>0.026874780654907227</t>
+  </si>
+  <si>
+    <t>1.5961718559265137</t>
+  </si>
+  <si>
+    <t>1;150</t>
+  </si>
+  <si>
+    <t>0.03068685531616211</t>
+  </si>
+  <si>
+    <t>1.5968761444091797</t>
+  </si>
+  <si>
+    <t>1;138</t>
+  </si>
+  <si>
+    <t>0.31393885612487793</t>
+  </si>
+  <si>
+    <t>15.975847005844116</t>
+  </si>
+  <si>
+    <t>1;336</t>
+  </si>
+  <si>
+    <t>0.3240840435028076</t>
+  </si>
+  <si>
+    <t>16.13136100769043</t>
+  </si>
+  <si>
+    <t>1;384</t>
+  </si>
+  <si>
+    <t>0.3431117534637451</t>
+  </si>
+  <si>
+    <t>16.476022958755493</t>
+  </si>
+  <si>
+    <t>1;570</t>
+  </si>
+  <si>
+    <t>0.3388500213623047</t>
+  </si>
+  <si>
+    <t>16.330016613006592</t>
+  </si>
+  <si>
+    <t>1;650</t>
+  </si>
+  <si>
+    <t>0.3335700035095215</t>
+  </si>
+  <si>
+    <t>15.943906545639038</t>
+  </si>
+  <si>
+    <t>1;860</t>
+  </si>
+  <si>
+    <t>Логарифм</t>
+  </si>
+  <si>
+    <t>0.010942935943603516</t>
+  </si>
+  <si>
+    <t>0.017176151275634766</t>
+  </si>
+  <si>
+    <t>Процесс операции "Логарифм" не подразумевает итогового значения</t>
+  </si>
+  <si>
+    <t>0;96</t>
+  </si>
+  <si>
+    <t>0.0007417201995849609</t>
+  </si>
+  <si>
+    <t>0.016292810440063477</t>
+  </si>
+  <si>
+    <t>0;387</t>
+  </si>
+  <si>
+    <t>0.0006573200225830078</t>
+  </si>
+  <si>
+    <t>0.01666712760925293</t>
+  </si>
+  <si>
+    <t>0;664</t>
+  </si>
+  <si>
+    <t>0.0008013248443603516</t>
+  </si>
+  <si>
+    <t>0.017138242721557617</t>
+  </si>
+  <si>
+    <t>0;55</t>
+  </si>
+  <si>
+    <t>0.0005033016204833984</t>
+  </si>
+  <si>
+    <t>0.017023563385009766</t>
+  </si>
+  <si>
+    <t>0;852</t>
+  </si>
+  <si>
+    <t>0.0031528472900390625</t>
+  </si>
+  <si>
+    <t>0.16803789138793945</t>
+  </si>
+  <si>
+    <t>0;193</t>
+  </si>
+  <si>
+    <t>0.002576112747192383</t>
+  </si>
+  <si>
+    <t>0.1720900535583496</t>
+  </si>
+  <si>
+    <t>0;925</t>
+  </si>
+  <si>
+    <t>0.003004312515258789</t>
+  </si>
+  <si>
+    <t>0.16960525512695312</t>
+  </si>
+  <si>
+    <t>0;548</t>
+  </si>
+  <si>
+    <t>0.0029408931732177734</t>
+  </si>
+  <si>
+    <t>0.17015576362609863</t>
+  </si>
+  <si>
+    <t>0;192</t>
+  </si>
+  <si>
+    <t>0.0030040740966796875</t>
+  </si>
+  <si>
+    <t>0.17080283164978027</t>
+  </si>
+  <si>
+    <t>0;970</t>
+  </si>
+  <si>
+    <t>0.0328371524810791</t>
+  </si>
+  <si>
+    <t>1.705993890762329</t>
+  </si>
+  <si>
+    <t>0;921</t>
+  </si>
+  <si>
+    <t>0.03325653076171875</t>
+  </si>
+  <si>
+    <t>1.6827986240386963</t>
+  </si>
+  <si>
+    <t>0;843</t>
+  </si>
+  <si>
+    <t>0.032207489013671875</t>
+  </si>
+  <si>
+    <t>1.7109785079956055</t>
+  </si>
+  <si>
+    <t>0;719</t>
+  </si>
+  <si>
+    <t>0.0329742431640625</t>
+  </si>
+  <si>
+    <t>1.686150074005127</t>
+  </si>
+  <si>
+    <t>0;208</t>
+  </si>
+  <si>
+    <t>0.0334320068359375</t>
+  </si>
+  <si>
+    <t>1.7159748077392578</t>
+  </si>
+  <si>
+    <t>0;468</t>
+  </si>
+  <si>
+    <t>0.3261759281158447</t>
+  </si>
+  <si>
+    <t>16.98881435394287</t>
+  </si>
+  <si>
+    <t>0;15</t>
+  </si>
+  <si>
+    <t>0.33462977409362793</t>
+  </si>
+  <si>
+    <t>17.016886234283447</t>
+  </si>
+  <si>
+    <t>0;985</t>
+  </si>
+  <si>
+    <t>0.33417272567749023</t>
+  </si>
+  <si>
+    <t>16.929027795791626</t>
+  </si>
+  <si>
+    <t>0;372</t>
+  </si>
+  <si>
+    <t>0.3301365375518799</t>
+  </si>
+  <si>
+    <t>17.101863622665405</t>
+  </si>
+  <si>
+    <t>0;633</t>
+  </si>
+  <si>
+    <t>0.3549685478210449</t>
+  </si>
+  <si>
+    <t>16.919950246810913</t>
+  </si>
+  <si>
+    <t>0;527</t>
   </si>
 </sst>
 </file>
@@ -122,7 +1160,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -145,14 +1183,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -433,10 +1520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,19 +1541,13 @@
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -476,15 +1557,17 @@
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -494,263 +1577,2682 @@
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="1"/>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="B8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="B11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="B15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="B18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+        <v>57</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="1">
-        <v>100000000</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="B25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="1">
-        <v>10564342</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B15:F15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3B621BD-F3F2-48B9-9154-A22C33AE790A}">
+  <dimension ref="A1:F27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B18" activeCellId="9" sqref="B1:F1 B4:F4 B8:F8 B11:F11 F15 B15 B22:F22 C15:E15 B25:F25 B18:F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="22" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="C15:E15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{678F96EE-AC41-4A48-80D5-FF390EDEE798}">
+  <dimension ref="A1:F27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F1 B4:F4 B8:F8 B11:F11 B18:F18 B15:F15 B22:F22 B25:F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="22" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B11:F11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28ACF7BF-8A02-4113-BE4C-60A34542BD8F}">
+  <dimension ref="A1:F27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="22" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B8:F8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5485AA9-0513-4E75-9305-BD58B62F04D5}">
+  <dimension ref="A1:F27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="22" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B15:F15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7934D46-108D-4B71-9430-FF38091DBA13}">
+  <dimension ref="A1:F27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="22" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B8:F8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>